--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -482,12 +482,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>EC264</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -610,17 +610,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>EC304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC304 (Tutorial)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC303</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>EC303</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC303</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC304</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC264</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC303</t>
         </is>
       </c>
     </row>
@@ -509,22 +509,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC303</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC303</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC304</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EC304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -674,12 +674,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS307</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC303</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>EC264</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC303</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC304</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -880,12 +880,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -912,17 +912,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC304</t>
         </is>
       </c>
     </row>
@@ -934,22 +934,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EC303 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,26 +1023,31 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1061,34 +1066,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1098,33 +1108,38 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Animesh Roy, Dibyajyothi</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Graphs and Social Networks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1143,60 +1158,70 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Krishendu, Girish</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Environmental Studies</t>
+          <t>Advanced Algorithms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1225,19 +1250,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1266,19 +1296,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Graphs and Social Networks</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1307,19 +1342,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advanced Algorithms</t>
+          <t>Cryptography &amp; Security</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1348,19 +1388,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1389,19 +1434,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>AI in Biomedical Engineering</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1430,19 +1480,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1471,19 +1526,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Security</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1512,19 +1572,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Graphs and Social Networks</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1553,19 +1618,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AI in Biomedical Engineering</t>
+          <t>Advanced Algorithms</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1594,34 +1664,39 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1631,33 +1706,38 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1676,60 +1756,70 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Cryptography &amp; Security</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1758,19 +1848,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1799,19 +1894,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Graphs and Social Networks</t>
+          <t>AI in Biomedical Engineering</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1840,19 +1940,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Advanced Algorithms</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1867,48 +1972,53 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1918,59 +2028,69 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1980,94 +2100,104 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Security</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: ECE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2086,19 +2216,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AI in Biomedical Engineering</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,33 +2248,38 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,134 +2294,149 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-2-4-2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2291,376 +2446,104 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Electronics Systems</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Pankaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Introduction of Communication</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Introduction to AI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2-0-2-4-2</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Electronic Systems</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>User Interaction (Minor)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2D Computer Graphics</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -477,22 +477,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>EC303</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC264</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC262</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC303</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC304</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC304 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EC264</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC304</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC264</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -664,17 +664,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>EC264</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>EC262</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC303</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -939,22 +939,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>EC303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,12 +472,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,12 +487,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC303</t>
         </is>
       </c>
     </row>
@@ -501,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304</t>
         </is>
       </c>
     </row>
@@ -570,7 +573,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,7 +588,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -612,7 +615,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC303 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -634,22 +637,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>EC303</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC304</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -666,22 +669,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS307</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -771,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -781,12 +784,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -845,17 +848,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>EC303</t>
         </is>
       </c>
     </row>
@@ -872,17 +875,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>EC303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -904,7 +907,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -914,7 +917,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -941,17 +944,3634 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>EC304 (Tutorial)</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-2-4-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-2-4-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -469,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>EC264</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC304</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC264</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>EC303</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC264</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,27 +739,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC303</t>
         </is>
       </c>
     </row>
@@ -835,27 +835,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC304</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>EC264</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EC303</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC304</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -59,7 +59,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="26">
     <fill>
       <patternFill/>
     </fill>
@@ -122,14 +122,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084e0b2"/>
-        <bgColor rgb="0084e0b2"/>
+        <fgColor rgb="0096CEB4"/>
+        <bgColor rgb="0096CEB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c5e084"/>
-        <bgColor rgb="00c5e084"/>
+        <fgColor rgb="00FECA57"/>
+        <bgColor rgb="00FECA57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084e0b2"/>
+        <bgColor rgb="0084e0b2"/>
       </patternFill>
     </fill>
     <fill>
@@ -148,6 +154,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00d8e084"/>
         <bgColor rgb="00d8e084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c5e084"/>
+        <bgColor rgb="00c5e084"/>
       </patternFill>
     </fill>
     <fill>
@@ -178,6 +190,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00e08b84"/>
         <bgColor rgb="00e08b84"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045B7D1"/>
+        <bgColor rgb="0045B7D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,18 +243,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -318,6 +336,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1169,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1210,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1216,6 +1244,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1248,6 +1277,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1280,6 +1310,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1312,6 +1343,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1344,6 +1376,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1358,10 +1391,7 @@
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -1371,10 +1401,7 @@
       </c>
       <c r="E6" s="14" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1382,6 +1409,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1401,20 +1429,12 @@
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1422,6 +1442,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1431,12 +1452,7 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
@@ -1446,12 +1462,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1464,6 +1475,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1496,6 +1508,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1528,6 +1541,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1536,6 +1550,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1544,6 +1559,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -1556,6 +1572,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -1568,6 +1585,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1590,8 +1608,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -1614,8 +1645,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -1638,8 +1682,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -1662,8 +1719,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -1686,8 +1756,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -1696,6 +1779,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
@@ -1708,6 +1792,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="18" t="inlineStr">
@@ -1740,6 +1825,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -1752,14 +1838,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="14" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1772,6 +1858,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1784,14 +1871,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="24" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1804,6 +1891,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1816,14 +1904,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1836,6 +1924,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1848,14 +1937,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1868,6 +1957,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1880,14 +1970,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="15" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1900,6 +1990,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1912,14 +2003,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="27" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1932,6 +2023,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1944,14 +2036,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="28" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -1964,6 +2056,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -1976,14 +2069,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="29" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -1996,6 +2089,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2008,14 +2102,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="30" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2028,6 +2122,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2040,14 +2135,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="31" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2060,11 +2155,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2077,7 +2173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2091,6 +2187,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2124,6 +2221,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2156,6 +2254,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2188,6 +2287,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2220,6 +2320,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2252,6 +2353,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2259,37 +2361,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-EC368 [C205]
-CS366 [C205]
-DS359 [C202]
-EC355 [C203]
-CS352 [C205]
-DE351 [C302]
-EC358 [C303]</t>
+      <c r="B6" s="34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C302]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-EC368 [C205]
-CS366 [C205]
-DS359 [C202]
-EC355 [C203]
-CS352 [C205]
-DE351 [C302]
-EC358 [C303]</t>
+          <t>EC351 [C202]</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -2302,6 +2386,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2314,18 +2399,9 @@
           <t>EC301 (Tutorial) [C202]</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
-        <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-EC368 (Tutorial) [C205]
-CS366 (Tutorial) [C205]
-DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-CS352 (Tutorial) [C205]
-DE351 (Tutorial) [C302]
-EC358 (Tutorial) [C303]</t>
+      <c r="C7" s="34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -2343,6 +2419,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2375,6 +2452,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2407,6 +2485,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2439,6 +2518,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2447,6 +2527,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2455,6 +2536,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -2467,6 +2549,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -2479,6 +2562,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2501,8 +2585,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -2525,8 +2622,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -2549,8 +2659,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -2573,8 +2696,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -2597,8 +2733,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -2607,6 +2756,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
@@ -2619,6 +2769,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="18" t="inlineStr">
@@ -2651,6 +2802,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -2663,14 +2815,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="14" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2683,6 +2835,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2695,14 +2848,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="24" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2715,6 +2868,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2727,14 +2881,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2747,6 +2901,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2759,14 +2914,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2779,6 +2934,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2791,14 +2947,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="15" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2811,6 +2967,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2823,14 +2980,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="27" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2843,6 +3000,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2855,14 +3013,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="28" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2875,6 +3033,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2887,14 +3046,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="29" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2907,6 +3066,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2919,14 +3079,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="30" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2939,6 +3099,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2951,14 +3112,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="31" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2971,11 +3132,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2988,7 +3150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3002,6 +3164,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3035,6 +3198,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3067,6 +3231,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3099,6 +3264,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3131,6 +3297,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3163,6 +3330,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3170,37 +3338,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-EC368 [C205]
-CS366 [C205]
-DS359 [C202]
-EC355 [C203]
-CS352 [C205]
-DE351 [C302]
-EC358 [C303]</t>
+      <c r="B6" s="34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C303]</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-EC368 [C205]
-CS366 [C205]
-DS359 [C202]
-EC355 [C203]
-CS352 [C205]
-DE351 [C302]
-EC358 [C303]</t>
+          <t>EC351 [C203]</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3213,6 +3363,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3225,18 +3376,9 @@
           <t>EC301 (Tutorial) [C203]</t>
         </is>
       </c>
-      <c r="C7" s="14" t="inlineStr">
-        <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-EC368 (Tutorial) [C205]
-CS366 (Tutorial) [C205]
-DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-CS352 (Tutorial) [C205]
-DE351 (Tutorial) [C302]
-EC358 (Tutorial) [C303]</t>
+      <c r="C7" s="34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -3254,6 +3396,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3286,6 +3429,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3318,6 +3462,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3350,6 +3495,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3358,6 +3504,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3366,6 +3513,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -3378,6 +3526,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -3390,6 +3539,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3412,8 +3562,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -3436,8 +3599,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -3460,8 +3636,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -3484,8 +3673,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -3508,8 +3710,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -3518,6 +3733,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
@@ -3530,6 +3746,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="18" t="inlineStr">
@@ -3562,6 +3779,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -3574,14 +3792,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="14" t="inlineStr">
+      <c r="C23" s="24" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3594,6 +3812,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3606,14 +3825,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="24" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3626,6 +3845,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3638,14 +3858,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3658,6 +3878,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3670,14 +3891,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3690,6 +3911,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3702,14 +3924,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="15" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3722,6 +3944,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3734,14 +3957,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="27" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3754,6 +3977,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3766,14 +3990,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="28" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3786,6 +4010,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3798,14 +4023,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="29" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3818,6 +4043,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3830,14 +4056,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="30" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3850,6 +4076,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3862,14 +4089,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="31" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3882,11 +4109,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -1287,17 +1287,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C202]</t>
+          <t>EC306 [C104]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C202]</t>
+          <t>EC306 [C104]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C202]</t>
+          <t>EC351 [C104]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C202]</t>
+          <t>EC301 [C104]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C202]</t>
+          <t>EC301 [C104]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C202]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C202]</t>
+          <t>EC301 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2010,12 +2010,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2264,17 +2264,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C203]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C203]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C203]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C203]</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C203]</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C202]</t>
+          <t>EC351 [C203]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C202]</t>
+          <t>EC301 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -2462,12 +2462,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C202]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3119,12 +3119,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3241,17 +3241,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C204]</t>
+          <t>EC306 [C001]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C204]</t>
+          <t>EC306 [C001]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C204]</t>
+          <t>EC351 [C001]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C204]</t>
+          <t>EC301 [C001]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C204]</t>
+          <t>EC301 [C001]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C203]</t>
+          <t>EC351 [C303]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C203]</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C203]</t>
+          <t>EC351 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -762,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -814,6 +815,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -841,6 +847,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Jagadish D.N</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>EC301 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -868,6 +879,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>EC306 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -895,6 +911,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Jagdish R.B</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>EC351 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -922,6 +943,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Chandrika Kamath</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>HS351 (3-0-0-0-3 | Full Sem)</t>
         </is>
       </c>
@@ -956,6 +982,11 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -983,6 +1014,11 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1010,6 +1046,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS308 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1037,6 +1078,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>CS352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1064,6 +1110,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>CS366 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1091,6 +1142,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>CS463 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1118,6 +1174,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>DS301 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1145,6 +1206,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>DS359 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1172,6 +1238,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC355 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1199,6 +1270,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC364 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1226,15 +1302,20 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>EC365 (3-1-0-0-4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1304,27 +1385,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1337,22 +1418,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C104]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C104]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C104]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351 [C202]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1370,17 +1451,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L408]</t>
+          <t>EC301 [C104]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC301 [C104]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351 [C202]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1436,7 +1517,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -1469,12 +1550,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C003]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1507,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C205]</t>
+          <t>EC351 [C202]</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1535,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1568,27 +1649,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1895,7 +1976,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1928,7 +2009,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1961,7 +2042,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1994,7 +2075,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2060,7 +2141,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2093,7 +2174,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2126,7 +2207,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2159,7 +2240,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2192,7 +2273,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2281,27 +2362,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2314,17 +2395,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C101]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C101]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2347,17 +2428,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L405]</t>
+          <t>HS351 [C203]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2418,7 +2499,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C203]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -2446,7 +2527,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>EC301 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2479,12 +2560,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351 [C203]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2512,12 +2593,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L207]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C003]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2545,27 +2626,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2872,7 +2953,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2905,7 +2986,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2938,7 +3019,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2971,7 +3052,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3037,7 +3118,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3070,7 +3151,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3103,7 +3184,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3136,7 +3217,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3169,7 +3250,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3258,27 +3339,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3291,17 +3372,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C001]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC306 [C001]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C001]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3324,17 +3405,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC301 [C001]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC301 [C001]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L407]</t>
+          <t>HS351 [C204]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3395,7 +3476,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>EC351 [C303]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -3423,7 +3504,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3456,12 +3537,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L107]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C303]</t>
+          <t>HS351 [C204]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3489,12 +3570,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L107]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C101]</t>
+          <t>EC351 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3522,27 +3603,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3849,7 +3930,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3882,7 +3963,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3915,7 +3996,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3948,7 +4029,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4014,7 +4095,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4047,7 +4128,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4080,7 +4161,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4113,7 +4194,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4146,7 +4227,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4225,27 +4306,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4380,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [C004]</t>
+          <t>HS351 [L405]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4358,7 +4439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [L408]</t>
+          <t>EC351 [L405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4417,12 +4498,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [L405]</t>
+          <t>HS351 [C104]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4449,12 +4530,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L106]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C104]</t>
+          <t>EC351 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4481,27 +4562,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -4593,27 +4674,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design [C304]</t>
+          <t>Introduction to VLSI Design [C204]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C304]</t>
+          <t>3-1-0-0-4 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C304]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C304]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4625,27 +4706,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Digital Signal Processing [C304]</t>
+          <t>Digital Signal Processing [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C304]</t>
+          <t>3-0-2-0-4 [C204]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C304]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C304]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4657,27 +4738,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms [C304]</t>
+          <t>Introduction to Algorithms [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C304]</t>
+          <t>3-1-0-0-4 [C204]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C304]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C304]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4689,27 +4770,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing [C304]</t>
+          <t>Happiness &amp; Wellbeing [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C304]</t>
+          <t>3-0-0-0-3 [C204]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C304]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C304]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4868,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4819,7 +4900,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4851,7 +4932,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4883,7 +4964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5265,10 +5346,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>99</v>
       </c>
       <c r="E5" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5299,10 +5380,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>31.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5333,10 +5414,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5435,10 +5516,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5469,10 +5550,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5639,10 +5720,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5945,10 +6026,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6231,10 +6312,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6333,10 +6414,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6506,7 +6587,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6770,7 +6851,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6780,7 +6861,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6794,7 +6875,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6842,7 +6923,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6852,7 +6933,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6866,7 +6947,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -6938,7 +7019,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7082,7 +7163,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7154,7 +7235,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7226,7 +7307,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7298,7 +7379,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7442,7 +7523,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -7658,7 +7739,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7711,12 +7792,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7730,7 +7811,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7802,7 +7883,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7874,7 +7955,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8018,7 +8099,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8090,7 +8171,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8162,7 +8243,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8234,7 +8315,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8378,7 +8459,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8498,21 +8579,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8522,7 +8603,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8536,7 +8617,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8594,7 +8675,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8738,7 +8819,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8810,7 +8891,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -8882,7 +8963,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -8954,7 +9035,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9098,7 +9179,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9170,7 +9251,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9314,7 +9395,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -9386,7 +9467,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9458,7 +9539,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9530,7 +9611,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -9674,7 +9755,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9746,7 +9827,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9890,7 +9971,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -9962,7 +10043,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10034,7 +10115,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10106,7 +10187,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -10216,31 +10297,31 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -10250,17 +10331,17 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10284,51 +10365,59 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10347,56 +10436,64 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10415,56 +10512,64 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10483,56 +10588,64 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10556,27 +10669,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10587,18 +10700,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -10629,7 +10750,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10639,12 +10760,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10662,12 +10783,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10700,59 +10821,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -10771,7 +10884,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10781,7 +10894,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10815,7 +10928,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -10839,17 +10952,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10877,7 +10990,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -10887,7 +11000,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -10915,27 +11028,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -10953,17 +11066,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -10991,17 +11104,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11011,7 +11124,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11029,17 +11142,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11067,17 +11180,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11087,7 +11200,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11105,17 +11218,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11143,17 +11256,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11172,7 +11285,7 @@
         </is>
       </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -11187,12 +11300,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -11211,7 +11324,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11221,7 +11334,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11255,7 +11368,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -11284,59 +11397,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11355,56 +11460,64 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11423,12 +11536,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -11476,7 +11589,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11499,12 +11612,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -11552,7 +11665,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11575,12 +11688,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -11600,7 +11713,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11618,7 +11731,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -11628,7 +11741,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11651,17 +11764,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11671,7 +11784,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -11687,18 +11800,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11724,29 +11845,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -11757,22 +11874,22 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -11800,22 +11917,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -11833,22 +11950,22 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P76" t="b">
@@ -11876,22 +11993,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -11909,22 +12026,22 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P77" t="b">
@@ -11952,12 +12069,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -11967,12 +12084,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -11985,22 +12102,22 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -12033,7 +12150,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12043,12 +12160,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12066,12 +12183,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12104,59 +12221,51 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -12180,59 +12289,51 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -12251,17 +12352,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12271,12 +12372,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12287,26 +12388,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12327,17 +12420,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12352,7 +12445,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12365,17 +12458,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -12403,17 +12496,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12428,7 +12521,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12441,17 +12534,17 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -12484,12 +12577,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12504,7 +12597,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12515,18 +12608,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12557,7 +12658,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12590,12 +12691,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -12628,12 +12729,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12661,22 +12762,22 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P87" t="b">
@@ -12704,12 +12805,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -12737,22 +12838,22 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P88" t="b">
@@ -12780,12 +12881,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -12813,22 +12914,22 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P89" t="b">
@@ -12861,7 +12962,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -12894,12 +12995,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -12937,7 +13038,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -12970,12 +13071,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -13013,7 +13114,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13028,7 +13129,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J92" t="b">
@@ -13046,12 +13147,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -13084,59 +13185,51 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -13160,59 +13253,51 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -13231,64 +13316,56 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13340,7 +13417,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, C104</t>
         </is>
       </c>
     </row>
@@ -13357,7 +13434,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
@@ -13374,7 +13451,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C104, L402</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13468,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C203, L403</t>
         </is>
       </c>
     </row>
@@ -13408,7 +13485,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, C305</t>
         </is>
       </c>
     </row>
@@ -13425,7 +13502,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001, C102, L402</t>
         </is>
       </c>
     </row>
@@ -13442,7 +13519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002, C104, L403</t>
         </is>
       </c>
     </row>
@@ -13459,7 +13536,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003, C202, L404</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13553,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104, L402, L405</t>
         </is>
       </c>
     </row>
@@ -13493,7 +13570,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203, L403, L406</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -911,7 +911,7 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>Jagdish R.B</t>
+          <t>Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>Chandrika Kamath</t>
+          <t>Chandrika Kamat</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
@@ -1385,27 +1385,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1418,22 +1418,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C104]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [C104]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C104]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C202]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C104]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C104]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C202]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C304]</t>
+          <t>EC351 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C202]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C104]</t>
+          <t>EC301 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1649,27 +1649,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2108,12 +2108,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2362,27 +2362,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2393,19 +2393,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>EC306 [C101]</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>EC306 [C101]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>EC351 [C101]</t>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2426,19 +2426,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>EC301 [C101]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>EC301 [C101]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>HS351 [C203]</t>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C203]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C104]</t>
+          <t>EC301 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C203]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C304]</t>
+          <t>EC351 (Tutorial) [L404]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2626,27 +2626,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3184,12 +3184,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3339,27 +3339,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3370,19 +3370,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>EC306 [C001]</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>EC306 [C001]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>EC351 [C001]</t>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3403,19 +3403,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>EC301 [C001]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>EC301 [C001]</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>HS351 [C204]</t>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C303]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C204]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C202]</t>
+          <t>EC351 (Tutorial) [L408]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3603,27 +3603,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4306,27 +4306,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -4338,17 +4338,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC306 [C004]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC351 [C004]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC301 [C004]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HS351 [L405]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [L405]</t>
+          <t>EC351 [L406]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C004]</t>
+          <t>EC301 (Tutorial) [L402]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [C104]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C101]</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4562,27 +4562,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -4642,27 +4642,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4674,27 +4674,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design [C204]</t>
+          <t>Introduction to VLSI Design [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C204]</t>
+          <t>3-1-0-0-4 [C302]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C102]</t>
         </is>
       </c>
     </row>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Digital Signal Processing [C204]</t>
+          <t>Digital Signal Processing [C102]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C204]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms [C204]</t>
+          <t>Introduction to Algorithms [C102]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C204]</t>
+          <t>3-1-0-0-4 [C302]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C102]</t>
         </is>
       </c>
     </row>
@@ -4770,27 +4770,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing [C204]</t>
+          <t>Happiness &amp; Wellbeing [C102]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C204]</t>
+          <t>3-0-0-0-3 [C102]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4826,27 +4826,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -4858,27 +4858,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4890,27 +4890,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4922,27 +4922,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4954,27 +4954,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4986,27 +4986,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5018,27 +5018,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5050,27 +5050,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5082,27 +5082,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5114,27 +5114,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5146,27 +5146,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5346,10 +5346,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5414,10 +5414,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>16.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5516,10 +5516,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6625,31 +6625,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6659,21 +6659,21 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6697,31 +6697,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6731,21 +6731,21 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6769,31 +6769,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6803,21 +6803,21 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6841,27 +6841,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6875,17 +6875,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -6913,27 +6913,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6947,17 +6947,17 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7019,12 +7019,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7057,31 +7057,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -7091,12 +7091,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7124,17 +7124,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7163,12 +7163,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7235,12 +7235,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7268,17 +7268,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7307,12 +7307,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7340,17 +7340,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7379,12 +7379,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7412,36 +7412,36 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7451,12 +7451,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7489,12 +7489,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7523,12 +7523,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7561,31 +7561,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7595,12 +7595,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7628,36 +7628,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7667,12 +7667,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7700,17 +7700,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7739,12 +7739,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7772,17 +7772,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7811,12 +7811,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7883,17 +7883,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -7916,17 +7916,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7955,12 +7955,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -7988,36 +7988,36 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -8027,12 +8027,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8060,17 +8060,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8099,12 +8099,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8132,17 +8132,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8171,12 +8171,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8204,17 +8204,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8243,12 +8243,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8276,17 +8276,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8315,12 +8315,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8348,36 +8348,36 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -8387,12 +8387,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8420,17 +8420,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8459,12 +8459,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8492,36 +8492,36 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -8531,12 +8531,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8584,12 +8584,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8603,12 +8603,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8636,17 +8636,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8675,12 +8675,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8708,36 +8708,36 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8747,12 +8747,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8761,7 +8761,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8780,17 +8780,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8819,12 +8819,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8852,17 +8852,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8891,12 +8891,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8924,32 +8924,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -8957,25 +8957,21 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -8996,17 +8992,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9016,7 +9012,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9029,25 +9025,21 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="b">
         <v>0</v>
       </c>
@@ -9068,60 +9060,56 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9140,17 +9128,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9173,10 +9161,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>C101</t>
@@ -9184,7 +9176,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9212,17 +9204,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9245,18 +9237,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9284,51 +9280,55 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9389,18 +9389,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9428,17 +9432,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9461,18 +9465,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9500,17 +9508,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9533,10 +9541,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
           <t>C204</t>
@@ -9544,7 +9556,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9572,32 +9584,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9605,25 +9617,21 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -9644,60 +9652,56 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9716,17 +9720,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9741,7 +9745,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9749,25 +9753,21 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9788,17 +9788,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9808,12 +9808,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9821,25 +9821,21 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -9860,60 +9856,56 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9932,19 +9924,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>EC301</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -9952,7 +9944,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -9965,25 +9957,21 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10004,19 +9992,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>EC306</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -10024,7 +10012,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10037,25 +10025,21 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10076,17 +10060,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10101,7 +10085,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10109,18 +10093,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10148,17 +10136,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10173,7 +10161,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10181,18 +10169,22 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10220,51 +10212,55 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10273,7 +10269,7 @@
         </is>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -10292,7 +10288,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10302,22 +10298,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10328,18 +10324,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
@@ -10360,17 +10364,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10380,7 +10384,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -10396,26 +10400,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -10436,7 +10432,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10446,7 +10442,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10472,26 +10468,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10512,17 +10500,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10532,7 +10520,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10548,26 +10536,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10588,17 +10568,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10608,7 +10588,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10624,26 +10604,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10664,17 +10636,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10700,26 +10672,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -10740,17 +10704,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10776,26 +10740,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10816,36 +10772,36 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -10855,17 +10811,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10884,36 +10840,36 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -10923,17 +10879,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10952,12 +10908,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -10972,12 +10928,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -10995,7 +10951,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -11005,7 +10961,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -11028,12 +10984,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -11043,12 +10999,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -11071,7 +11027,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11081,7 +11037,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11104,12 +11060,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -11124,12 +11080,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11147,7 +11103,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11157,7 +11113,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11180,12 +11136,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -11200,12 +11156,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11223,7 +11179,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11233,7 +11189,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11256,32 +11212,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11292,18 +11248,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11324,56 +11288,64 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11392,56 +11364,64 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11465,12 +11445,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11498,22 +11478,22 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -11541,12 +11521,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11561,7 +11541,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11574,22 +11554,22 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11617,12 +11597,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11637,7 +11617,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11650,22 +11630,22 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11693,12 +11673,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11724,26 +11704,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11769,12 +11741,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11800,11 +11772,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>C305</t>
@@ -11812,14 +11780,10 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11845,25 +11809,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
@@ -11872,26 +11840,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="b">
         <v>0</v>
       </c>
@@ -11917,27 +11877,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -11948,26 +11908,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -11988,17 +11940,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12024,11 +11976,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>C003</t>
@@ -12036,14 +11984,10 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
         <v>0</v>
       </c>
@@ -12064,17 +12008,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12102,17 +12046,17 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12140,17 +12084,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12160,12 +12104,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12178,17 +12122,17 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12216,56 +12160,64 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -12284,56 +12236,64 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -12357,12 +12317,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12372,12 +12332,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12388,18 +12348,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12425,12 +12393,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12458,22 +12426,22 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12501,12 +12469,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12534,22 +12502,22 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P84" t="b">
@@ -12577,12 +12545,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12610,22 +12578,22 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P85" t="b">
@@ -12653,12 +12621,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12673,7 +12641,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12686,22 +12654,22 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -12734,7 +12702,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12749,7 +12717,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -12767,12 +12735,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -12805,12 +12773,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -12825,7 +12793,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -12836,26 +12804,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="b">
         <v>0</v>
       </c>
@@ -12881,12 +12841,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -12901,7 +12861,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -12912,26 +12872,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="b">
         <v>0</v>
       </c>
@@ -12957,12 +12909,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -12972,12 +12924,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -12988,26 +12940,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="b">
         <v>0</v>
       </c>
@@ -13033,12 +12977,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -13048,12 +12992,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
@@ -13064,26 +13008,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
         <v>0</v>
       </c>
@@ -13104,17 +13040,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13140,26 +13076,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="b">
         <v>0</v>
       </c>
@@ -13180,36 +13108,36 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -13219,17 +13147,17 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -13248,7 +13176,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -13258,26 +13186,26 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -13287,17 +13215,17 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -13316,36 +13244,36 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -13355,17 +13283,17 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13417,7 +13345,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C104</t>
+          <t>C101, L406, L408</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13362,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13379,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, L402</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13396,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C203, L403</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13413,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101, C305</t>
+          <t>C101, L408</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13430,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C102, L402</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -13519,7 +13447,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C104, L403</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13464,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C003, C202, L404</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13481,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104, L402, L405</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -13570,7 +13498,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, L403, L406</t>
+          <t>C204</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L407]</t>
+          <t>EC351 (Tutorial) [L408]</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L403]</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L405]</t>
+          <t>EC301 (Tutorial) [L404]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L405]</t>
+          <t>EC301 (Tutorial) [L404]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L404]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2593,12 +2593,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L404]</t>
+          <t>EC351 (Tutorial) [L408]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L408]</t>
+          <t>EC351 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L402]</t>
+          <t>EC301 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC351 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4674,27 +4674,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design [C102]</t>
+          <t>Introduction to VLSI Design [C204]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C302]</t>
+          <t>3-1-0-0-4 [C203]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C102]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Digital Signal Processing [C102]</t>
+          <t>Digital Signal Processing [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C203]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms [C102]</t>
+          <t>Introduction to Algorithms [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C302]</t>
+          <t>3-1-0-0-4 [C203]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C102]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4770,27 +4770,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing [C102]</t>
+          <t>Happiness &amp; Wellbeing [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C102]</t>
+          <t>3-0-0-0-3 [C204]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5414,10 +5414,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5516,10 +5516,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5788,10 +5788,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6442,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6659,7 +6659,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6731,7 +6731,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6769,27 +6769,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6803,17 +6803,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P5" t="b">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6875,12 +6875,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6947,12 +6947,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7019,12 +7019,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7091,12 +7091,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7124,17 +7124,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7163,12 +7163,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7201,12 +7201,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7235,12 +7235,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7273,12 +7273,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7307,12 +7307,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7345,12 +7345,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7379,17 +7379,17 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P13" t="b">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7451,12 +7451,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7523,7 +7523,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7595,12 +7595,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7628,17 +7628,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7667,12 +7667,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7700,17 +7700,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7739,12 +7739,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7777,12 +7777,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7811,12 +7811,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7883,12 +7883,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7955,7 +7955,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8027,7 +8027,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8060,17 +8060,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -8099,12 +8099,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8132,17 +8132,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8171,12 +8171,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8243,12 +8243,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8281,12 +8281,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8315,12 +8315,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8387,7 +8387,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8459,7 +8459,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8492,17 +8492,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8531,12 +8531,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8603,12 +8603,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8675,12 +8675,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8713,12 +8713,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8819,7 +8819,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8891,7 +8891,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -8924,32 +8924,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -8957,21 +8957,25 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -8992,17 +8996,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9012,7 +9016,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9025,21 +9029,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
@@ -9171,7 +9179,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9247,7 +9255,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9323,7 +9331,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9381,7 +9389,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9399,7 +9407,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -9452,7 +9460,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9475,7 +9483,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9528,7 +9536,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9551,7 +9559,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9584,27 +9592,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -9620,18 +9628,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -9652,17 +9668,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9688,7 +9704,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>C305</t>
@@ -9696,10 +9716,14 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
@@ -9720,32 +9744,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9756,18 +9780,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9788,17 +9820,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9824,18 +9856,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -9856,17 +9896,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9900,7 +9940,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -9924,32 +9964,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9960,18 +10000,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -9992,17 +10040,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10028,18 +10076,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10060,17 +10116,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10080,12 +10136,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10103,17 +10159,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P51" t="b">
@@ -10136,17 +10192,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10156,12 +10212,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10179,17 +10235,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P52" t="b">
@@ -10212,17 +10268,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10237,7 +10293,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10250,17 +10306,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10288,17 +10344,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10313,7 +10369,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10326,17 +10382,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10364,17 +10420,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10384,12 +10440,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10400,18 +10456,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -10432,7 +10496,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10442,7 +10506,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10452,7 +10516,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -10468,18 +10532,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10500,17 +10572,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10536,18 +10608,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10568,17 +10648,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10604,7 +10684,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>C305</t>
@@ -10612,10 +10696,14 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10636,17 +10724,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10656,7 +10744,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10675,12 +10763,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -10704,32 +10792,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10740,18 +10828,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10772,32 +10868,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10808,18 +10904,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -10840,32 +10944,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -10876,18 +10980,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>EC351</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -10908,17 +11020,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10951,17 +11063,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -10984,7 +11096,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10994,7 +11106,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11004,12 +11116,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11022,17 +11134,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11060,7 +11172,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11070,7 +11182,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11080,12 +11192,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11098,17 +11210,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11136,7 +11248,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -11146,7 +11258,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11156,12 +11268,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11174,17 +11286,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11212,17 +11324,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11232,12 +11344,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11255,17 +11367,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11288,17 +11400,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11308,12 +11420,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11331,17 +11443,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11364,17 +11476,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11384,12 +11496,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11407,1892 +11519,20 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>5</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>5</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>5</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>5</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13345,7 +11585,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L406, L408</t>
+          <t>C002, C004, C302</t>
         </is>
       </c>
     </row>
@@ -13362,7 +11602,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C003, C305, L402</t>
         </is>
       </c>
     </row>
@@ -13379,7 +11619,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C002, C004, L403</t>
         </is>
       </c>
     </row>
@@ -13396,7 +11636,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>L402, L404</t>
         </is>
       </c>
     </row>
@@ -13413,7 +11653,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C101, L408</t>
+          <t>C104, C203, L403</t>
         </is>
       </c>
     </row>
@@ -13430,7 +11670,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202, C204, L404</t>
         </is>
       </c>
     </row>
@@ -13447,7 +11687,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302, L405</t>
         </is>
       </c>
     </row>
@@ -13464,7 +11704,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303, L406</t>
         </is>
       </c>
     </row>
@@ -13481,7 +11721,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304, L404, L407</t>
         </is>
       </c>
     </row>
@@ -13498,7 +11738,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305, L406, L408</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L408]</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L403]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L404]</t>
+          <t>EC301 (Tutorial) [L408]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C002]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2108,12 +2108,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C001]</t>
+          <t>Thu 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L404]</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L408]</t>
+          <t>EC351 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C002]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C001]</t>
+          <t>Thu 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L403]</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C305]</t>
+          <t>EC351 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C002]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C001]</t>
+          <t>Thu 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [L406]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L403]</t>
+          <t>EC301 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab) [L402]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C305]</t>
+          <t>EC351 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4674,27 +4674,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design [C204]</t>
+          <t>Introduction to VLSI Design [C303]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C203]</t>
+          <t>3-1-0-0-4 [C303]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Digital Signal Processing [C204]</t>
+          <t>Digital Signal Processing [C303]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C203]</t>
+          <t>3-0-2-0-4 [C302]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms [C204]</t>
+          <t>Introduction to Algorithms [C303]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C203]</t>
+          <t>3-1-0-0-4 [C303]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4770,27 +4770,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing [C204]</t>
+          <t>Happiness &amp; Wellbeing [C303]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C204]</t>
+          <t>3-0-0-0-3 [C303]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C303]</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5788,10 +5788,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6442,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6640,12 +6640,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6659,7 +6659,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6779,17 +6779,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6803,7 +6803,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6947,7 +6947,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7019,7 +7019,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7091,7 +7091,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7163,7 +7163,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7273,27 +7273,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7307,17 +7307,17 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -7345,12 +7345,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7379,17 +7379,17 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P13" t="b">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7451,12 +7451,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7489,12 +7489,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7523,12 +7523,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7595,12 +7595,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7633,12 +7633,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7667,12 +7667,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7700,17 +7700,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7739,12 +7739,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7777,12 +7777,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7883,12 +7883,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7955,7 +7955,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -8027,7 +8027,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -8099,7 +8099,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8132,17 +8132,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8171,12 +8171,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8281,12 +8281,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8315,12 +8315,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8387,7 +8387,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8459,7 +8459,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -8531,7 +8531,7 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8603,12 +8603,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8713,12 +8713,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8747,12 +8747,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8785,12 +8785,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8819,12 +8819,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8857,12 +8857,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8891,12 +8891,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8929,12 +8929,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8963,12 +8963,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8996,17 +8996,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9029,25 +9029,21 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="b">
         <v>0</v>
       </c>
@@ -9073,27 +9069,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9107,12 +9103,12 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -9141,27 +9137,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9172,26 +9168,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="b">
         <v>0</v>
       </c>
@@ -9222,7 +9210,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9255,12 +9243,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9298,7 +9286,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9331,12 +9319,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9374,7 +9362,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9389,7 +9377,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9407,12 +9395,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9450,7 +9438,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9460,12 +9448,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9483,12 +9471,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9526,7 +9514,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9536,7 +9524,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9559,12 +9547,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9592,17 +9580,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9617,7 +9605,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9630,17 +9618,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9668,17 +9656,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9688,7 +9676,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -9704,26 +9692,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
         <v>0</v>
       </c>
@@ -9744,32 +9724,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9780,26 +9760,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9820,17 +9792,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9856,26 +9828,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -9896,17 +9860,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9940,7 +9904,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -9964,32 +9928,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10000,26 +9964,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10040,17 +9996,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10060,7 +10016,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10076,26 +10032,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10116,17 +10064,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10136,12 +10084,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10159,17 +10107,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P51" t="b">
@@ -10192,17 +10140,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10212,12 +10160,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10235,17 +10183,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P52" t="b">
@@ -10268,17 +10216,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10293,7 +10241,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10306,17 +10254,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10344,17 +10292,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10369,7 +10317,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10382,17 +10330,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10420,27 +10368,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -10456,26 +10404,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -10496,7 +10436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10506,7 +10446,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10532,26 +10472,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10572,17 +10504,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10592,7 +10524,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10608,26 +10540,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10648,17 +10572,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10668,7 +10592,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10684,26 +10608,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10724,17 +10640,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10744,7 +10660,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10763,12 +10679,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -10792,32 +10708,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10828,26 +10744,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10868,32 +10776,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10904,26 +10812,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -10944,32 +10844,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -10980,26 +10880,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11020,17 +10912,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11063,17 +10955,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -11096,7 +10988,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -11106,7 +10998,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11134,17 +11026,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11172,7 +11064,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11182,7 +11074,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11210,17 +11102,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11248,7 +11140,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -11258,7 +11150,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11286,17 +11178,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11324,17 +11216,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11344,12 +11236,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11367,17 +11259,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11400,17 +11292,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11420,12 +11312,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11443,17 +11335,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11476,63 +11368,1935 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>L408</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P69" t="b">
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11585,7 +13349,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C004, C302</t>
+          <t>C101, L402, L404, L408</t>
         </is>
       </c>
     </row>
@@ -11602,7 +13366,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C305, L402</t>
+          <t>C102, L403, L405</t>
         </is>
       </c>
     </row>
@@ -11619,7 +13383,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C004, L403</t>
+          <t>C104, L404, L406</t>
         </is>
       </c>
     </row>
@@ -11636,7 +13400,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L402, L404</t>
+          <t>C202, L405, L407</t>
         </is>
       </c>
     </row>
@@ -11653,7 +13417,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C203, L403</t>
+          <t>C101, C204, L408</t>
         </is>
       </c>
     </row>
@@ -11670,7 +13434,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C204, L404</t>
+          <t>C102, C205</t>
         </is>
       </c>
     </row>
@@ -11687,7 +13451,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C302, L405</t>
+          <t>C104, C302</t>
         </is>
       </c>
     </row>
@@ -11704,7 +13468,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C303, L406</t>
+          <t>C202, C303</t>
         </is>
       </c>
     </row>
@@ -11721,7 +13485,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C304, L404, L407</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -11738,7 +13502,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C305, L406, L408</t>
+          <t>C204, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -1385,22 +1385,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
@@ -1418,22 +1418,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L404]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L404]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L404]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L107]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L404]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L207]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L107]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab) [C001]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>EC351 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L404]</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L408]</t>
+          <t>EC301 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1649,27 +1649,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2108,12 +2108,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L404]</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L404]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L404]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L404]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2428,17 +2428,17 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L404]</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L107]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L404]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L106]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC301 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L404]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L403]</t>
+          <t>EC351 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2626,27 +2626,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L404]</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
@@ -3372,17 +3372,17 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L404]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L404]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L404]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3405,17 +3405,17 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L404]</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L404]</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L404]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [C308]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC301 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L404]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [L407]</t>
+          <t>EC351 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3603,27 +3603,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L404]</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4306,22 +4306,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4338,17 +4338,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L407]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC301 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L407]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L407]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC306 [L407]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L407]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC351 [L207]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>HS351 [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L402]</t>
+          <t>EC306 (Lab) [L407]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C002]</t>
+          <t>EC351 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4562,27 +4562,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
     </row>
@@ -4642,27 +4642,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [L407]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [L407]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [L407]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [L407]</t>
         </is>
       </c>
     </row>
@@ -4674,27 +4674,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design [C303]</t>
+          <t>Introduction to VLSI Design [C304]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C303]</t>
+          <t>3-1-0-0-4 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C305]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C304]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C303]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
     </row>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Digital Signal Processing [C303]</t>
+          <t>Digital Signal Processing [C202]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C302]</t>
+          <t>3-0-2-0-4 [C304]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C202]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C202]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -4738,27 +4738,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms [C303]</t>
+          <t>Introduction to Algorithms [C305]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C303]</t>
+          <t>3-1-0-0-4 [C203]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C304]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C202]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C303]</t>
+          <t>1/1 [C304]</t>
         </is>
       </c>
     </row>
@@ -4770,27 +4770,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing [C303]</t>
+          <t>Happiness &amp; Wellbeing [C101]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C303]</t>
+          <t>3-0-0-0-3 [C101]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C305]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C305]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C303]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -4826,27 +4826,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [L407]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [L407]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
     </row>
@@ -4858,27 +4858,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L407]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L407]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4890,27 +4890,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L407]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L407]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4922,27 +4922,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L407]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L407]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4954,27 +4954,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L407]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L407]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4986,27 +4986,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L407]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L407]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5018,27 +5018,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L407]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L407]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5050,27 +5050,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L407]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L407]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5082,27 +5082,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L407]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L407]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5114,27 +5114,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L407]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L407]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5146,27 +5146,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L407]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L407]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5414,10 +5414,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5822,10 +5822,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28.5</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>20.7</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6414,10 +6414,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6587,7 +6587,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6625,12 +6625,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6640,16 +6640,16 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6659,21 +6659,21 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6697,31 +6697,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6731,21 +6731,21 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6769,12 +6769,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6803,21 +6803,21 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6841,27 +6841,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6875,17 +6875,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6947,21 +6947,21 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -7091,12 +7091,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7129,12 +7129,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7163,12 +7163,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7235,12 +7235,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7268,32 +7268,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7307,17 +7307,17 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -7340,17 +7340,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7379,12 +7379,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7412,17 +7412,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7451,12 +7451,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7489,12 +7489,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7523,12 +7523,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7595,12 +7595,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7633,12 +7633,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7667,12 +7667,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7700,36 +7700,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7739,12 +7739,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7772,17 +7772,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7792,16 +7792,16 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -7811,12 +7811,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7825,7 +7825,7 @@
         </is>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7883,17 +7883,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -7916,17 +7916,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7955,12 +7955,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -7988,17 +7988,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -8027,12 +8027,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8060,17 +8060,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8099,12 +8099,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8132,17 +8132,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8171,12 +8171,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8204,17 +8204,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8243,12 +8243,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8276,17 +8276,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8315,12 +8315,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8348,17 +8348,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -8387,12 +8387,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -8420,17 +8420,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8459,12 +8459,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8492,19 +8492,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>HS351</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -8531,12 +8531,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8584,16 +8584,16 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8603,12 +8603,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8675,12 +8675,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8708,17 +8708,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -8747,12 +8747,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8761,7 +8761,7 @@
         </is>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -8780,17 +8780,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8819,12 +8819,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8852,17 +8852,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8891,12 +8891,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8924,17 +8924,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8963,12 +8963,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8996,17 +8996,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9029,21 +9029,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
@@ -9064,17 +9068,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9093,27 +9097,31 @@
         </is>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9132,32 +9140,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9165,21 +9173,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P38" t="b">
         <v>0</v>
       </c>
@@ -9200,17 +9212,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9225,7 +9237,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9233,22 +9245,18 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9276,17 +9284,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9296,35 +9304,31 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9333,7 +9337,7 @@
         </is>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -9352,17 +9356,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9377,7 +9381,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9385,22 +9389,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9428,17 +9428,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9461,14 +9461,10 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>C202</t>
@@ -9476,7 +9472,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9504,17 +9500,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9529,7 +9525,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9537,22 +9533,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9580,17 +9572,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9613,22 +9605,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9656,17 +9644,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9685,27 +9673,31 @@
         </is>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -9724,17 +9716,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9744,12 +9736,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9757,21 +9749,25 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9792,17 +9788,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9812,7 +9808,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -9825,21 +9821,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -9860,17 +9860,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9889,27 +9889,31 @@
         </is>
       </c>
       <c r="J48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -9928,32 +9932,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9961,21 +9965,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -9996,17 +10004,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10029,7 +10037,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -10040,10 +10048,14 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>EC306</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10064,17 +10076,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10089,7 +10101,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10097,22 +10109,18 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10140,17 +10148,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10165,7 +10173,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10173,22 +10181,18 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10216,17 +10220,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10236,35 +10240,31 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10273,7 +10273,7 @@
         </is>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10302,7 +10302,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10312,44 +10312,36 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -10368,32 +10360,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10404,18 +10396,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -10436,7 +10436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10472,18 +10472,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10504,17 +10512,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10524,12 +10532,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10540,18 +10548,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10572,17 +10588,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10592,12 +10608,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10608,18 +10624,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10640,17 +10664,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10660,12 +10684,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10676,18 +10700,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -10708,17 +10740,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10728,7 +10760,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10744,18 +10776,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10776,17 +10816,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10805,7 +10845,7 @@
         </is>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -10815,17 +10855,17 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -10844,17 +10884,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10864,7 +10904,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -10873,7 +10913,7 @@
         </is>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -10883,17 +10923,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -10912,12 +10952,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -10932,12 +10972,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -10955,7 +10995,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -10965,7 +11005,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -10988,12 +11028,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -11008,12 +11048,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11031,7 +11071,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11041,7 +11081,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P64" t="b">
@@ -11064,12 +11104,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -11084,7 +11124,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11107,7 +11147,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11117,7 +11157,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11140,12 +11180,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -11160,7 +11200,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11183,7 +11223,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11193,7 +11233,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11216,64 +11256,56 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -11292,17 +11324,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11312,44 +11344,36 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11368,17 +11392,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11388,44 +11412,36 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11449,12 +11465,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11482,22 +11498,22 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -11525,12 +11541,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11545,7 +11561,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11558,22 +11574,22 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11601,12 +11617,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11621,7 +11637,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11634,22 +11650,22 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11677,12 +11693,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11692,7 +11708,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -11708,18 +11724,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11745,12 +11769,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11760,7 +11784,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -11776,18 +11800,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11813,12 +11845,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11828,7 +11860,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -11844,18 +11876,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P75" t="b">
         <v>0</v>
       </c>
@@ -11881,12 +11921,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11896,7 +11936,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -11912,18 +11952,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -11944,17 +11992,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -11980,18 +12028,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P77" t="b">
         <v>0</v>
       </c>
@@ -12012,17 +12068,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12032,12 +12088,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12050,17 +12106,17 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12088,17 +12144,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12108,12 +12164,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12126,17 +12182,17 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12164,17 +12220,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12193,35 +12249,27 @@
         </is>
       </c>
       <c r="J80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -12240,17 +12288,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12269,35 +12317,27 @@
         </is>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -12321,12 +12361,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12336,7 +12376,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12352,26 +12392,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12397,12 +12429,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12417,7 +12449,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12430,22 +12462,22 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12473,12 +12505,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12506,22 +12538,22 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P84" t="b">
@@ -12549,12 +12581,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12569,7 +12601,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12582,22 +12614,22 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P85" t="b">
@@ -12625,12 +12657,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12645,7 +12677,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -12658,22 +12690,22 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P86" t="b">
@@ -12706,7 +12738,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12721,7 +12753,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -12739,12 +12771,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -12777,12 +12809,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -12792,12 +12824,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -12808,18 +12840,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P88" t="b">
         <v>0</v>
       </c>
@@ -12845,12 +12885,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -12860,7 +12900,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -12876,18 +12916,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P89" t="b">
         <v>0</v>
       </c>
@@ -12913,12 +12961,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -12928,7 +12976,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -12944,18 +12992,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P90" t="b">
         <v>0</v>
       </c>
@@ -12981,12 +13037,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -12996,7 +13052,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -13012,18 +13068,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P91" t="b">
         <v>0</v>
       </c>
@@ -13044,17 +13108,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13064,7 +13128,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -13080,18 +13144,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P92" t="b">
         <v>0</v>
       </c>
@@ -13112,17 +13184,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -13141,7 +13213,7 @@
         </is>
       </c>
       <c r="J93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -13151,17 +13223,17 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -13180,7 +13252,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -13190,7 +13262,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -13209,7 +13281,7 @@
         </is>
       </c>
       <c r="J94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -13219,17 +13291,17 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -13248,17 +13320,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -13277,7 +13349,7 @@
         </is>
       </c>
       <c r="J95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -13287,17 +13359,17 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13349,7 +13421,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L402, L404, L408</t>
+          <t>C101, C102, L407</t>
         </is>
       </c>
     </row>
@@ -13366,7 +13438,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, L403, L405</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13455,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, L404, L406</t>
+          <t>C202, C303</t>
         </is>
       </c>
     </row>
@@ -13400,7 +13472,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, L405, L407</t>
+          <t>C203, C204, C304</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C101, C204, L408</t>
+          <t>C104, C204, C305, L407</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13506,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C204, C302, C305</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13523,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C302</t>
+          <t>C101, C205, C303</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13540,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C303</t>
+          <t>C102, C303, C304</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13557,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C102, C104, C305</t>
         </is>
       </c>
     </row>
@@ -13502,7 +13574,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C203, C302, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -1385,27 +1385,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1418,22 +1418,22 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [L404]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>EC306 [L404]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L404]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L107]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L404]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L207]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L107]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L404]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C003]</t>
+          <t>EC301 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1654,22 +1654,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2042,12 +2042,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L402]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L408]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L406]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2362,27 +2362,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2395,17 +2395,17 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L404]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L404]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2428,17 +2428,17 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>EC306 [L404]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>EC306 [L107]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L404]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L106]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L105]</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2631,22 +2631,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L402]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L408]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3184,12 +3184,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L406]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3339,27 +3339,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3372,17 +3372,17 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L404]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L404]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3405,17 +3405,17 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>EC306 [L404]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>EC306 [L404]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L404]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C308]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L405]</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3537,12 +3537,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [L404]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C202]</t>
+          <t>EC351 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3608,22 +3608,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3963,12 +3963,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L402]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L408]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L406]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4306,27 +4306,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
     </row>
@@ -4338,17 +4338,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC301 [L407]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC301 [L407]</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HS351 [L407]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4370,17 +4370,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC306 [L407]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC306 [L407]</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC351 [L407]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC351 [L207]</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [L407]</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L206]</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HS351 [L407]</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4530,12 +4530,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC306 (Lab) [L407]</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C104]</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4567,22 +4567,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -4642,27 +4642,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L407]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L407]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L407]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L407]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design [C304]</t>
+          <t>Introduction to VLSI Design [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4684,17 +4684,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C305]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C304]</t>
+          <t>3/3 [C305]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C305]</t>
         </is>
       </c>
     </row>
@@ -4711,17 +4711,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C304]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C202]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C202]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4738,27 +4738,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms [C305]</t>
+          <t>Introduction to Algorithms [C101]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C203]</t>
+          <t>3-1-0-0-4 [C303]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C304]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C202]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C304]</t>
+          <t>1/1 [C305]</t>
         </is>
       </c>
     </row>
@@ -4770,27 +4770,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing [C101]</t>
+          <t>Happiness &amp; Wellbeing [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3-0-0-0-3 [C101]</t>
+          <t>3-0-0-0-3 [C102]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Full Sem [C305]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3/3 [C305]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4826,27 +4826,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Course [L407]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Course Code [L407]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L407]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L407]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -4858,27 +4858,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing [L407]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463 [L407]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4890,27 +4890,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing [L407]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463 [L407]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4922,27 +4922,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing [L407]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463 [L407]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4954,27 +4954,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parallel computing [L407]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS463 [L407]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4986,27 +4986,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Full Stack Development [L407]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DS359 [L407]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5018,27 +5018,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full Stack Development [L407]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DS359 [L407]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5050,27 +5050,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full Stack Development [L407]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DS359 [L407]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5082,27 +5082,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Full Stack Development [L407]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS359 [L407]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5114,27 +5114,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full Stack Development [L407]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DS359 [L407]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5146,27 +5146,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Full Stack Development [L407]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DS359 [L407]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5414,10 +5414,10 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E7" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5788,10 +5788,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5822,10 +5822,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6026,10 +6026,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>103.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6414,10 +6414,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6442,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6587,7 +6587,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6625,12 +6625,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6649,7 +6649,7 @@
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6659,12 +6659,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6673,7 +6673,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6697,12 +6697,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6712,16 +6712,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6731,12 +6731,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6769,12 +6769,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6784,16 +6784,16 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6803,21 +6803,21 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6841,27 +6841,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6875,17 +6875,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6947,21 +6947,21 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6980,17 +6980,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7019,12 +7019,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7052,17 +7052,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -7091,12 +7091,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7163,12 +7163,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7235,12 +7235,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7307,12 +7307,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7379,12 +7379,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7412,17 +7412,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7432,16 +7432,16 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7451,12 +7451,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7484,17 +7484,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7523,12 +7523,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7556,17 +7556,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7595,12 +7595,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7628,17 +7628,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -7667,12 +7667,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7681,7 +7681,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7700,36 +7700,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7739,12 +7739,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7772,17 +7772,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7792,16 +7792,16 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -7811,12 +7811,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7825,7 +7825,7 @@
         </is>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7883,17 +7883,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7955,12 +7955,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -7988,17 +7988,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -8027,12 +8027,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8060,17 +8060,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8099,12 +8099,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8132,17 +8132,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8171,12 +8171,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8204,17 +8204,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8243,12 +8243,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8276,17 +8276,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8315,12 +8315,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8348,17 +8348,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -8387,12 +8387,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8420,17 +8420,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8459,12 +8459,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8492,17 +8492,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -8531,12 +8531,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8545,7 +8545,7 @@
         </is>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -8593,7 +8593,7 @@
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8603,12 +8603,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8636,17 +8636,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8675,12 +8675,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8708,17 +8708,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8737,31 +8737,27 @@
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8780,17 +8776,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8800,7 +8796,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8813,25 +8809,21 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="b">
         <v>0</v>
       </c>
@@ -8852,17 +8844,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8872,12 +8864,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8885,25 +8877,21 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="b">
         <v>0</v>
       </c>
@@ -8924,17 +8912,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>EC301 (Tutorial)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8944,7 +8932,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8957,25 +8945,21 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -8996,17 +8980,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9021,7 +9005,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9029,18 +9013,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9068,17 +9056,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9088,31 +9076,35 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9121,7 +9113,7 @@
         </is>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9140,17 +9132,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9173,18 +9165,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9212,17 +9208,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9245,18 +9241,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9284,17 +9284,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9313,22 +9313,26 @@
         </is>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9337,7 +9341,7 @@
         </is>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9356,17 +9360,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9381,7 +9385,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9389,18 +9393,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9428,32 +9436,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9461,25 +9469,21 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="b">
         <v>0</v>
       </c>
@@ -9500,60 +9504,52 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -9572,60 +9568,52 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -9644,32 +9632,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9677,25 +9665,21 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
         <v>1</v>
       </c>
@@ -9716,17 +9700,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9736,12 +9720,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9749,25 +9733,21 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9788,17 +9768,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9808,7 +9788,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -9821,25 +9801,21 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -9860,17 +9836,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9880,31 +9856,35 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9913,7 +9893,7 @@
         </is>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9932,17 +9912,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9965,10 +9945,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
           <t>C203</t>
@@ -9976,7 +9960,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10004,17 +9988,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10029,7 +10013,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10037,18 +10021,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10076,17 +10064,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10109,18 +10097,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10148,60 +10140,56 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -10220,17 +10208,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10240,7 +10228,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -10249,31 +10237,27 @@
         </is>
       </c>
       <c r="J53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -10292,34 +10276,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="b">
         <v>1</v>
       </c>
@@ -10331,12 +10311,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>EC306 (Lab)</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -10360,64 +10340,52 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10436,64 +10404,56 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -10512,17 +10472,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10532,12 +10492,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10548,26 +10508,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10588,17 +10540,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10613,7 +10565,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10624,26 +10576,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10664,17 +10608,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10689,7 +10633,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10702,22 +10646,22 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -10740,17 +10684,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10765,7 +10709,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10778,22 +10722,22 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -10816,17 +10760,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10836,7 +10780,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -10845,27 +10789,35 @@
         </is>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10884,17 +10836,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10904,36 +10856,44 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10952,17 +10912,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10977,7 +10937,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -10990,17 +10950,17 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11028,17 +10988,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11066,17 +11026,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11104,17 +11064,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11142,17 +11102,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11180,17 +11140,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11218,17 +11178,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11256,56 +11216,64 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -11324,17 +11292,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11344,7 +11312,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -11353,27 +11321,35 @@
         </is>
       </c>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11392,34 +11368,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
         <v>1</v>
       </c>
@@ -11431,12 +11403,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -11465,59 +11437,47 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -11541,59 +11501,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -11612,64 +11564,56 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -11688,17 +11632,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11713,7 +11657,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11731,17 +11675,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P73" t="b">
@@ -11764,17 +11708,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11789,7 +11733,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11802,17 +11746,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -11840,17 +11784,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11878,7 +11822,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -11888,7 +11832,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -11916,17 +11860,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11941,7 +11885,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -11954,17 +11898,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -11992,17 +11936,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12017,7 +11961,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12035,17 +11979,17 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P77" t="b">
@@ -12068,17 +12012,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12111,17 +12055,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -12144,17 +12088,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12187,17 +12131,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P79" t="b">
@@ -12220,17 +12164,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12240,7 +12184,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -12249,27 +12193,35 @@
         </is>
       </c>
       <c r="J80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -12288,17 +12240,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12308,7 +12260,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -12317,27 +12269,35 @@
         </is>
       </c>
       <c r="J81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -12361,12 +12321,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12376,7 +12336,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -12392,18 +12352,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS351</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12429,59 +12397,47 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -12505,59 +12461,47 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -12581,59 +12525,51 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -12652,64 +12588,56 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -12728,64 +12656,52 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -12804,64 +12720,56 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -12880,32 +12788,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC306 (Lab)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -12916,26 +12824,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="b">
         <v>0</v>
       </c>
@@ -12956,64 +12856,56 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -13032,17 +12924,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC351 (Tutorial)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -13068,308 +12960,20 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J94" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J95" t="b">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13421,7 +13025,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C102, L407</t>
+          <t>C102, C204, L207</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13042,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C101, C203, C302</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13059,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C202, C303</t>
+          <t>C104, C204, C304</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13076,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C203, C204, C304</t>
+          <t>C104, C302, C303</t>
         </is>
       </c>
     </row>
@@ -13489,7 +13093,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C204, C305, L407</t>
+          <t>C102, C104, C205</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13110,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C302, C305</t>
+          <t>C102, C104, C202</t>
         </is>
       </c>
     </row>
@@ -13523,7 +13127,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C205, C303</t>
+          <t>C202, C203, C204</t>
         </is>
       </c>
     </row>
@@ -13540,7 +13144,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102, C303, C304</t>
+          <t>C203, C204, C205</t>
         </is>
       </c>
     </row>
@@ -13557,7 +13161,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104, C305</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -13574,7 +13178,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C302, C304</t>
+          <t>C102, C204, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_ECE_timetable.xlsx
+++ b/backend/output_timetables/sem5_ECE_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -211,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -239,11 +243,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -347,6 +395,8 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1335,27 +1385,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C002]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C003]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1378,12 +1428,12 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>EC351 [L407]</t>
+          <t>EC351 [L405]</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C305]</t>
+          <t>HS351 [C303]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1401,17 +1451,17 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C001]</t>
+          <t>EC301 [C304]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C001]</t>
+          <t>EC301 [C304]</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C104]</t>
+          <t>HS351 [C303]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1505,7 +1555,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C001]</t>
+          <t>EC351 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
@@ -1538,7 +1588,7 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C104]</t>
+          <t>EC351 [C204]</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -1566,7 +1616,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1599,27 +1649,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C003]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C003]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C002]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1648,10 +1698,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1661,12 +1711,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1868,11 +1918,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="B21" s="35" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="35" t="n"/>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="36" t="n"/>
       <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
@@ -1926,12 +1976,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1959,12 +2009,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C003], Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1992,12 +2042,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2025,12 +2075,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2058,12 +2108,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2091,12 +2141,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2124,12 +2174,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2157,12 +2207,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2190,12 +2240,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2223,12 +2273,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2312,27 +2362,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C002]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C003]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2345,17 +2395,17 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [L405]</t>
+          <t>EC301 [L408]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C001]</t>
+          <t>EC301 [C101]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C003]</t>
+          <t>HS351 [L402]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2388,7 +2438,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C101]</t>
+          <t>EC351 [C204]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2449,7 +2499,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C203]</t>
+          <t>EC351 [C204]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -2477,7 +2527,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -2515,7 +2565,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C202]</t>
+          <t>HS351 [C101]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2548,7 +2598,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C001]</t>
+          <t>EC351 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2576,27 +2626,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C003]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C003]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C002]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2625,10 +2675,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2638,12 +2688,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2845,11 +2895,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="B21" s="35" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="35" t="n"/>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="36" t="n"/>
       <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
@@ -2903,12 +2953,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2936,12 +2986,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C003], Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2969,12 +3019,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3002,12 +3052,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3035,12 +3085,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3068,12 +3118,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3101,12 +3151,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3134,12 +3184,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3167,12 +3217,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3200,12 +3250,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3289,27 +3339,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C002]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C003]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3322,17 +3372,17 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C203]</t>
+          <t>EC301 [C305]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>EC301 [C001]</t>
+          <t>EC301 [C202]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C202]</t>
+          <t>HS351 [C104]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3365,7 +3415,7 @@
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C302]</t>
+          <t>EC351 [C204]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3426,7 +3476,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>EC351 [C305]</t>
+          <t>EC351 [C204]</t>
         </is>
       </c>
       <c r="D6" s="34" t="inlineStr">
@@ -3454,7 +3504,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial) [C101]</t>
+          <t>EC301 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="34" t="inlineStr">
@@ -3492,7 +3542,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>HS351 [C104]</t>
+          <t>HS351 [C304]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -3525,7 +3575,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>EC351 (Tutorial) [C001]</t>
+          <t>EC351 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3553,27 +3603,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C003]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C003]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C002]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3602,10 +3652,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3615,12 +3665,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3822,11 +3872,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="B21" s="35" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="35" t="n"/>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="36" t="n"/>
       <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
@@ -3880,12 +3930,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3913,12 +3963,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C003], Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3946,12 +3996,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3979,12 +4029,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4012,12 +4062,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4045,12 +4095,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4078,12 +4128,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4111,12 +4161,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4144,12 +4194,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4177,12 +4227,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4200,4 +4250,7759 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C002]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C003]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C003]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C003]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS351 [L106]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC306 [L206]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EC306 [L107]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EC351 [C308]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EC351 [L403]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HS351 [L405]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC306 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C003]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C003]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C003]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C003]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design [C305]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C302]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C102]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C205]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1/1 [C305]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing [C104]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C303]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Full Sem [C104]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3/3 [C302]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0/0 [C101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms [C203]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C305]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Full Sem [C203]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C303]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1/1 [C104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing [C204]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3 [C304]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Full Sem [C204]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3/3 [C304]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0/0 [C203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>EC301 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>EC306 (Lab)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>EC301</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>EC306</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>EC351</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>EC351 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>HS351</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C002, C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C001, C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C003, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C002, C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C001, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C003, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C101, C102, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C104, C202, C205</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>